--- a/output/dataset.xlsx
+++ b/output/dataset.xlsx
@@ -843,6 +843,50 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
+    <x:row r="9" spans="1:15">
+      <x:c r="A9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
